--- a/inst/extdata/population-workflow-input.xlsx
+++ b/inst/extdata/population-workflow-input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Design2Code\R-RE-tests\Workflow Srcipts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Design2Code\OSPSuite.ReportingEngine\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="PopulationSimulation" sheetId="1" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
   <si>
     <t>reportName</t>
   </si>
@@ -229,24 +229,6 @@
     <t>isReference</t>
   </si>
   <si>
-    <t>TasksimulatePopulation</t>
-  </si>
-  <si>
-    <t>TaskcalculatePKParameter</t>
-  </si>
-  <si>
-    <t>TaskdoVPC</t>
-  </si>
-  <si>
-    <t>TaskdoSensitivityAnalysis</t>
-  </si>
-  <si>
-    <t>the population will be simulated, if false, simulation results should be already available!</t>
-  </si>
-  <si>
-    <t>the PK Parameter, defined in the output csv will be calculated, if false, results should be already available</t>
-  </si>
-  <si>
     <t>sensitivity analysis is performed</t>
   </si>
   <si>
@@ -266,12 +248,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>default plots will be generated</t>
-  </si>
-  <si>
-    <t>Following entries define tasks, which should be performed for all simulations. Only the entries of the first simulation are taken into account</t>
   </si>
   <si>
     <t>name of csv file which is used to interprete the nonmen data</t>
@@ -734,6 +710,66 @@
   </si>
   <si>
     <t>path</t>
+  </si>
+  <si>
+    <t>simulate</t>
+  </si>
+  <si>
+    <t>calculatePKParameters</t>
+  </si>
+  <si>
+    <t>calculateSensitivity</t>
+  </si>
+  <si>
+    <t>plotTimeProfilesAndResiduals</t>
+  </si>
+  <si>
+    <t>plotPKParameters</t>
+  </si>
+  <si>
+    <t>plotSensitivity</t>
+  </si>
+  <si>
+    <t>plotDemography</t>
+  </si>
+  <si>
+    <t>time profiles of the population are simulated, if false, simulation results should be already available!</t>
+  </si>
+  <si>
+    <t>PK parameters are calculated</t>
+  </si>
+  <si>
+    <t>default plots for time profiles and residuals are generated</t>
+  </si>
+  <si>
+    <t>plots of sensitivity analysis are performed</t>
+  </si>
+  <si>
+    <t>plots of PK parameters distributions are performed</t>
+  </si>
+  <si>
+    <t>plots of Demography parameters distributions are performed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Following entries define tasks, which should be performed for all simulations. Only the entries of the first simulation are taken into account</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1257,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1273,16 +1309,16 @@
   <sheetData>
     <row r="1" spans="1:18" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1301,13 +1337,13 @@
     </row>
     <row r="2" spans="1:18" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1327,13 +1363,13 @@
     </row>
     <row r="3" spans="1:18" ht="232.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1354,7 +1390,7 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1378,13 +1414,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
@@ -1395,38 +1431,38 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
@@ -1434,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" s="25"/>
     </row>
@@ -1443,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1455,7 +1491,7 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="27"/>
@@ -1482,10 +1518,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1496,16 +1532,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="27"/>
@@ -1526,21 +1562,21 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>11</v>
@@ -1550,7 +1586,7 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="27"/>
@@ -1571,13 +1607,13 @@
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="5"/>
@@ -1597,13 +1633,13 @@
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="5"/>
@@ -1623,16 +1659,16 @@
     </row>
     <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
@@ -1643,16 +1679,16 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1661,22 +1697,22 @@
     </row>
     <row r="23" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
@@ -1685,10 +1721,10 @@
     </row>
     <row r="25" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1697,15 +1733,15 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>18</v>
+        <v>162</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1713,13 +1749,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1727,17 +1763,53 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1749,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1763,33 +1835,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D2" s="15"/>
     </row>
@@ -1798,49 +1870,49 @@
         <v>0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1849,120 +1921,120 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1970,43 +2042,43 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -2014,10 +2086,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -2044,33 +2116,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -2080,49 +2152,49 @@
         <v>0</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2131,252 +2203,252 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -2384,10 +2456,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -2395,10 +2467,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -2406,10 +2478,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -2417,10 +2489,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -2447,26 +2519,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2492,36 +2564,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
@@ -2530,13 +2602,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -2545,16 +2617,16 @@
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -2562,19 +2634,19 @@
     </row>
     <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="23" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2602,21 +2674,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B2" s="26">
         <v>2</v>
@@ -2625,12 +2697,12 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B3" s="26">
         <v>2</v>
@@ -2639,12 +2711,12 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B4" s="26">
         <v>2</v>
@@ -2653,12 +2725,12 @@
         <v>0.1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B5" s="26">
         <v>2</v>
@@ -2667,12 +2739,12 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B6" s="26">
         <v>2</v>
@@ -2681,12 +2753,12 @@
         <v>0.1</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B7" s="26">
         <v>2</v>
@@ -2695,12 +2767,12 @@
         <v>0.1</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B8" s="26">
         <v>2</v>
@@ -2709,7 +2781,7 @@
         <v>0.1</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
